--- a/Excel/LanguageENUSConfig.xlsx
+++ b/Excel/LanguageENUSConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>Not one's own piece, cannot be deselected</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>Cancel Prepare</t>
+  </si>
+  <si>
+    <t>Prepared</t>
+  </si>
+  <si>
+    <t>Not Prepare</t>
   </si>
 </sst>
 </file>
@@ -102,8 +114,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -123,6 +135,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -131,96 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -229,20 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -253,7 +251,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +266,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,31 +294,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +432,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,139 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,11 +503,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,26 +551,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,21 +585,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,6 +975,38 @@
           </cell>
           <cell r="D23" t="str">
             <v>不是自己的棋子,不能取消选择</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>19</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>准备</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>20</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>取消准备</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>21</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>已准备</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>22</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>未准备</v>
           </cell>
         </row>
       </sheetData>
@@ -1258,10 +1302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:E23"/>
+  <dimension ref="C2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1524,6 +1568,54 @@
         <v>25</v>
       </c>
     </row>
+    <row r="24" spans="3:5">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C24,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>准备</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C25,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>取消准备</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C26,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>已准备</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C27,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>未准备</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LanguageENUSConfig.xlsx
+++ b/Excel/LanguageENUSConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="15195" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="LanguageENUSConfig" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>Not Prepare</t>
+  </si>
+  <si>
+    <t>Cant Select Opponent's Piece</t>
+  </si>
+  <si>
+    <t>Cant Eat</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -115,8 +130,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -143,9 +158,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,7 +226,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,8 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +265,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -195,7 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,76 +293,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -294,55 +309,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,43 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,79 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +500,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,16 +530,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,16 +554,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,6 +1022,46 @@
           </cell>
           <cell r="D27" t="str">
             <v>未准备</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>23</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>只能选择自己的棋子</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>24</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>打不赢</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>25</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>胜利</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>26</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>失败</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>27</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>???</v>
           </cell>
         </row>
       </sheetData>
@@ -1302,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:E27"/>
+  <dimension ref="C2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1616,6 +1671,66 @@
         <v>29</v>
       </c>
     </row>
+    <row r="28" spans="3:5">
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C28,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>只能选择自己的棋子</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C29,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>打不赢</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C30,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>胜利</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C31,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>失败</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C32,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>???</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LanguageENUSConfig.xlsx
+++ b/Excel/LanguageENUSConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>The distance is too far</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1065,14 @@
           </cell>
           <cell r="D32" t="str">
             <v>???</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>28</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>距离太远</v>
           </cell>
         </row>
       </sheetData>
@@ -1357,10 +1368,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:E32"/>
+  <dimension ref="C2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1731,6 +1742,18 @@
         <v>34</v>
       </c>
     </row>
+    <row r="33" spans="3:5">
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C33,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>距离太远</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LanguageENUSConfig.xlsx
+++ b/Excel/LanguageENUSConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>The distance is too far</t>
+  </si>
+  <si>
+    <t>Not your turn</t>
   </si>
 </sst>
 </file>
@@ -1073,6 +1076,14 @@
           </cell>
           <cell r="D33" t="str">
             <v>距离太远</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>29</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>不是自己的回合</v>
           </cell>
         </row>
       </sheetData>
@@ -1368,10 +1379,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:E33"/>
+  <dimension ref="C2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1754,6 +1765,18 @@
         <v>35</v>
       </c>
     </row>
+    <row r="34" spans="3:5">
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34" t="str">
+        <f>INDEX([1]LanguageZHCNConfig!D:D,MATCH(C34,[1]LanguageZHCNConfig!C:C,0))</f>
+        <v>不是自己的回合</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
